--- a/j6/defendants-charged-with-111a1.xlsx
+++ b/j6/defendants-charged-with-111a1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="364">
   <si>
     <t xml:space="preserve">AIDEN HENRY BILYARD</t>
   </si>
@@ -625,7 +625,10 @@
     <t xml:space="preserve">LANDON KENNETH </t>
   </si>
   <si>
-    <t xml:space="preserve">2022-08-29-USAvLandonCopeland-GovernmentsSentencingMemorandum|Pushed a rioter into a police officer|Grappled with some officers, grabbing at their jackets and riot shields|Along with other rioter, grabbed bike rack barricade from officer|Charged at officers with bike rack, threw bike rack at officers</t>
+    <t xml:space="preserve">2022-08-29-USAvLandonCopeland-GovernmentsSentencingMemorandum.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pushed a rioter into a police officer|Grappled with some officers, grabbing at their jackets and riot shields|Along with other rioter, grabbed bike rack barricade from officer|Charged at officers with bike rack, threw bike rack at officers</t>
   </si>
   <si>
     <t xml:space="preserve">MARK ANDREW MAZZA</t>
@@ -1221,14 +1224,14 @@
   </sheetPr>
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="80.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="130.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="221.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="219.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
@@ -1977,602 +1980,605 @@
       <c r="B68" s="0" t="s">
         <v>201</v>
       </c>
+      <c r="C68" s="0" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>141</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/j6/defendants-charged-with-111a1.xlsx
+++ b/j6/defendants-charged-with-111a1.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">2021-06-25-USAvAlanByerly-StatementOfFacts.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Had a taser but never got to use it on police|Charged towards officers, physically strike and push|Attempt to grab officer's baton|Charged with 111(b) because of taser - he threatened with it</t>
+    <t xml:space="preserve">Had a taser but never got to use it on police|Charged towards officers, physically strike and push|Attempt to grab officer's baton</t>
   </si>
   <si>
     <t xml:space="preserve">ANDREW QUENTIN TAAKE</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">2022-08-23-USAvBobbyRussell-StatementOfFacts.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Grabbed barricade, resisting officers (who sprayed him)|Pulled jacket off of an officer while struggling to hold barricade|Pushed with back into police riot shields</t>
+    <t xml:space="preserve">Grabbed barricade, resisting officers|Pulled jacket off of an officer while struggling to hold barricade|Pushed with back into police riot shields</t>
   </si>
   <si>
     <t xml:space="preserve">BRIAN CHRISTOPHER MOCK</t>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">2022-04-04-USAvCharlesDonohoe-StatementOfOffense.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Three 2 water bottles at line of police</t>
+    <t xml:space="preserve">Threw 2 water bottles at line of police</t>
   </si>
   <si>
     <t xml:space="preserve">CHRISTIAN MATTHEW MANLEY</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">2021-10-18-USAvChristianManley-StatementOfFacts.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Used pepper spray on cops|Threw empty spray cannister at officers|Threw metal rod at officers|Pushed a door against officers trying to defend entrance</t>
+    <t xml:space="preserve">Used pepper spray on cops|Threw empty spray canister at officers|Threw metal rod at officers|Pushed a door against officers trying to defend entrance</t>
   </si>
   <si>
     <t xml:space="preserve">CHRISTOPHER JOHN WORRELL</t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">2021-01-07-USAvChristopherAlberts.pdf 2023-07-12-USAvChristopherAlberts-SentencingMemorandum.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Grappled with officers|Picked up large wooden pallet, grapphed with USCP officer for control of pallet|Used pallet as makeshift battering ram to charge through defensive line|Pushed against police line|Threw bottle at police</t>
+    <t xml:space="preserve">Grappled with officers|Picked up large wooden pallet, grappled with USCP officer for control of pallet|Used pallet as makeshift battering ram to charge through defensive line|Pushed against police line|Threw bottle at police</t>
   </si>
   <si>
     <t xml:space="preserve">CLAYTON RAY MULLINS</t>
@@ -520,7 +520,7 @@
     <t xml:space="preserve">2023-01-17-USAvJordenMink-StatementOfOffense.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Spits at officers in police defensive lines|Threw objects (traffic cone, rectangular object, stick) at officers|Hit officer's shields at least 5 times with long pole</t>
+    <t xml:space="preserve">Spit at officers in police defensive lines|Threw objects (traffic cone, rectangular object, stick) at officers|Hit officer's shields at least 5 times with long pole</t>
   </si>
   <si>
     <t xml:space="preserve">JOSEPH BRODY</t>
@@ -697,7 +697,7 @@
     <t xml:space="preserve">2022-12-08-USAvMatthewManley-StatementOfOffense.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprayed officers in LWT tunnel with chemical spray|Threw empty spray cannister at officers|Sprayed officers again with chemical spray|Threw empty spray cannister at officers again|Threw a pipe and an unknown object at officers|Pushed door against officers</t>
+    <t xml:space="preserve">Sprayed officers in LWT tunnel with chemical spray|Threw empty spray canister at officers|Sprayed officers again with chemical spray|Threw empty spray canister at officers again|Threw a pipe and an unknown object at officers|Pushed door against officers</t>
   </si>
   <si>
     <t xml:space="preserve">MATTHEW COUNCIL</t>
@@ -823,7 +823,7 @@
     <t xml:space="preserve">2023-07-13-USAvPeterStager-GovernmentsSentencingMemorandum.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Hit a fallen officer with a flag pole 3 times|    https://twitter.com/islandgirlprv/status/1668283520395927553</t>
+    <t xml:space="preserve">Hit a fallen officer with a flag pole 3 times</t>
   </si>
   <si>
     <t xml:space="preserve">s=42&amp;t=nOTT7_F02MWBrQfV_MBZhw</t>
@@ -871,7 +871,7 @@
     <t xml:space="preserve">2022-04-07-USAvRickyWillden-StatementOfOffense.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprayed officers with chemical spray|Through cannister of chemical spray at officers</t>
+    <t xml:space="preserve">Sprayed officers with chemical spray|Through canister of chemical spray at officers</t>
   </si>
   <si>
     <t xml:space="preserve">RILEY D KASPER</t>
@@ -997,7 +997,7 @@
     <t xml:space="preserve">2023-04-17-USAvSeanMcHugh-StatementOfOffense.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Pulled defensive police barrier, struggled back and forth with officers over barrier        |Sprayed officers with chemical spray|Helped rioters in effort to carry large metal sign frame</t>
+    <t xml:space="preserve">Pulled defensive police barrier, struggled back and forth with officers over barrier|Sprayed officers with chemical spray|Helped rioters in effort to carry large metal sign frame</t>
   </si>
   <si>
     <t xml:space="preserve">SHANE JASON WOODS</t>
@@ -1015,7 +1015,7 @@
     <t xml:space="preserve">2023-09-28-USAvShaneJenkins-GovernmentSentencingMemorandum.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Joined crowd in pushing against police defensive line|Threw 9 different obects at police line, including wooden desk drawer, a flagpole, a metal walking stick, a broken wooden pole with spear-like point</t>
+    <t xml:space="preserve">Joined crowd in pushing against police defensive line|Threw 9 different objects at police line, including wooden desk drawer, a flagpole, a metal walking stick, a broken wooden pole with spear-like point</t>
   </si>
   <si>
     <t xml:space="preserve">SHELLY STALLINGS</t>
@@ -1066,7 +1066,7 @@
     <t xml:space="preserve">2023-12-07-USAvThomasBallard-GovernmentsSentencingMemorandum.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Struck officer's hand to knock pole out of hand|Hit police officers using numerous weapons including a piece of metal scaffolding, pieces of a wooden plank, and a white metal pole        |Threw a tabletop at officers|Threw an unspecified object at officers, threw a table-leg at officers|Hit officers using police baton|Pointed flashing strobe light at officers|Slid scaffolding at officers' feet/legs|Threw a pole at officers</t>
+    <t xml:space="preserve">Struck officer's hand to knock pole out of hand|Hit police officers using numerous weapons including a piece of metal scaffolding, pieces of a wooden plank, and a white metal pole|Threw a tabletop at officers|Threw an unspecified object at officers, threw a table-leg at officers|Hit officers using police baton|Pointed flashing strobe light at officers|Slid scaffolding at officers' feet/legs|Threw a pole at officers</t>
   </si>
   <si>
     <t xml:space="preserve">THOMAS WEBSTER</t>
@@ -1126,6 +1126,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1224,8 +1225,8 @@
   </sheetPr>
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C88" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/j6/defendants-charged-with-111a1.xlsx
+++ b/j6/defendants-charged-with-111a1.xlsx
@@ -358,7 +358,7 @@
     <t xml:space="preserve">https://sigsegv1980.github.io/j6/2021-07-09-USAvEdwardRodriguez-StatementOfFacts.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprayed cops with pepper spray</t>
+    <t xml:space="preserve">Sprayed bear spray at multiple officers</t>
   </si>
   <si>
     <t xml:space="preserve">FEDERICO GUILLERMO KLEIN</t>
@@ -1340,7 +1340,7 @@
   <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/j6/defendants-charged-with-111a1.xlsx
+++ b/j6/defendants-charged-with-111a1.xlsx
@@ -439,7 +439,7 @@
     <t xml:space="preserve">https://sigsegv1980.github.io/j6/2023-09-19-USAvCraigBingertAndIsaacSturgeon-SentencingMemorandum.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Tried to duck under police barricade|Was about to push into police defensive line, but aborted his attempt|Refused to comply with officers ordering him to get down from a ledge</t>
+    <t xml:space="preserve">Tried to duck under police barricade|Pushed barricade at police|Was about to push into police defensive line, but aborted his attempt|Refused to comply with officers ordering him to get down from a ledge</t>
   </si>
   <si>
     <t xml:space="preserve">JACK WADE WHITTON</t>
@@ -601,7 +601,7 @@
     <t xml:space="preserve">https://sigsegv1980.github.io/j6/2023-07-18-USAvKalebDillard-StatementOfOffense.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Forced his way past officers defending a door|Grabbed an officer who was attempting to shut doors, and pushed officer to the ground</t>
+    <t xml:space="preserve">Forced his way past officers defending a door|Grabbed an officer who was attempting to shut doors, and pushed officer to the ground|Shoved an officer away from door</t>
   </si>
   <si>
     <t xml:space="preserve">KENNETH JOSEPH OWEN THOMAS</t>
@@ -637,7 +637,7 @@
     <t xml:space="preserve">https://sigsegv1980.github.io/j6/2022-04-07-USAvKyleYoung-StatementOfOffense.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Held strobe light towards police|Pushed at police with a stick-like object|Helped other rioters hurl a large audio speaker at police defensive line (accidentally hit another rioter instead)|Pulled officer's arm</t>
+    <t xml:space="preserve">Held strobe light towards police|Pushed at police with a stick-like object|Helped other rioters hurl a large audio speaker at police defensive line (accidentally hit another rioter instead)|Pulled officer's arm restraining the officer for several seconds as other rioters assaulted officer</t>
   </si>
   <si>
     <t xml:space="preserve">LANDON KENNETH </t>
@@ -1340,7 +1340,7 @@
   <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+      <selection pane="topLeft" activeCell="C69" activeCellId="0" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/j6/defendants-charged-with-111a1.xlsx
+++ b/j6/defendants-charged-with-111a1.xlsx
@@ -640,7 +640,7 @@
     <t xml:space="preserve">Held strobe light towards police|Pushed at police with a stick-like object|Helped other rioters hurl a large audio speaker at police defensive line (accidentally hit another rioter instead)|Pulled officer's arm restraining the officer for several seconds as other rioters assaulted officer</t>
   </si>
   <si>
-    <t xml:space="preserve">LANDON KENNETH </t>
+    <t xml:space="preserve">LANDON COPELAND</t>
   </si>
   <si>
     <t xml:space="preserve">https://sigsegv1980.github.io/j6/2022-08-29-USAvLandonCopeland-GovernmentsSentencingMemorandum.pdf</t>
@@ -697,7 +697,7 @@
     <t xml:space="preserve">https://sigsegv1980.github.io/j6/2023-04-17-USAvMarkusMaly-SentencingMemorandum.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Threw object at the police|Pushed forward against police line|Sprayed police with chemical spray|Pushed against officers in LWT tunnel during "heave-ho" efforts</t>
+    <t xml:space="preserve">Threw object at the police|Pushed forward against police line|Sprayed police with pepper spray|Pushed against officers in LWT tunnel during "heave-ho" efforts</t>
   </si>
   <si>
     <t xml:space="preserve">MARSHALL NEEFE</t>
@@ -1340,7 +1340,7 @@
   <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C69" activeCellId="0" sqref="C69"/>
+      <selection pane="topLeft" activeCell="C76" activeCellId="0" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/j6/defendants-charged-with-111a1.xlsx
+++ b/j6/defendants-charged-with-111a1.xlsx
@@ -763,6 +763,15 @@
     <t xml:space="preserve">Threw water bottle at police|Grappled with officer and stole baton|Hit two officers with baton</t>
   </si>
   <si>
+    <t xml:space="preserve">MICHAEL DICKINSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sigsegv1980.github.io/j6/2022-09-06-USAvMichaelDickinson-StatementOfOffense.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threw coffee tumbler at police, striking officer in head and chest|Dumped a bucket of unknown liquid on police</t>
+  </si>
+  <si>
     <t xml:space="preserve">MICHAEL ECKERMAN</t>
   </si>
   <si>
@@ -770,15 +779,6 @@
   </si>
   <si>
     <t xml:space="preserve">Joined crowd to push against police defensive line|Resisted an officer's attempt to restrain him, causing officer to stumble down some steps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICHAEL JAMES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sigsegv1980.github.io/j6/2022-09-06-USAvMichaelDickinson-StatementOfOffense.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Threw coffee tumbler at police, striking officer in head and chest|Dumped a bucket of unknown liquid on police</t>
   </si>
   <si>
     <t xml:space="preserve">MICHAEL JOSEPH FOY</t>
@@ -1337,10 +1337,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C76" activeCellId="0" sqref="C76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2729,6 +2729,7 @@
         <v>372</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://sigsegv1980.github.io/j6/2022-10-19-USAvAlbuquerqueHead-GovernmentSentencingMemorandum.pdf"/>

--- a/j6/defendants-charged-with-111a1.xlsx
+++ b/j6/defendants-charged-with-111a1.xlsx
@@ -952,7 +952,7 @@
     <t xml:space="preserve">https://sigsegv1980.github.io/j6/2021-10-04-USAvRobertPalmer-StatementOfOffense.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Threw wooden plank at police officer|Sprayed fire extinguisher at officers|Threw fire extinguisher at officers</t>
+    <t xml:space="preserve">Threw wooden plank at police officer|Sprayed fire extinguisher at officers|Threw fire extinguisher at officers|Threw orange traffic cone at police|Pushed piece of scaffolding at officers' legs</t>
   </si>
   <si>
     <t xml:space="preserve">ROBERT WAYNE DENNIS</t>
@@ -979,7 +979,7 @@
     <t xml:space="preserve">https://sigsegv1980.github.io/j6/2021-12-21-USAvRonaldMcAbee-MemorandumOpinion.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Grabbed police officer by leg and torso and pulled him toward stairs and crowd of rioters|Swung arms at police officers while screaming profanities</t>
+    <t xml:space="preserve">Grabbed police officer by leg and torso and pulled him toward stairs and crowd of rioters|Used brass knuckles to punch officer</t>
   </si>
   <si>
     <t xml:space="preserve">RONALD SANDLIN</t>
@@ -1339,8 +1339,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C107" activeCellId="0" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/j6/defendants-charged-with-111a1.xlsx
+++ b/j6/defendants-charged-with-111a1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="376">
   <si>
     <t xml:space="preserve">AIDEN HENRY BILYARD</t>
   </si>
@@ -602,6 +602,42 @@
   </si>
   <si>
     <t xml:space="preserve">Forced his way past officers defending a door|Grabbed an officer who was attempting to shut doors, and pushed officer to the ground|Shoved an officer away from door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENNETH BONAWITZ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://sigsegv1980.github.io/j6/2023-08-17-USAvKennethBonawitz-StatementOfOffense.pdf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://sigsegv1980.github.io/j6/2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-01-03-USAvKennethBonawitz-GovernmentSentencingMemorandum.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Charged and tackled two officers|Shoved, pushed and punched officers|Struck officer in face|Placed officer in choke-hold and lifted her off ground</t>
   </si>
   <si>
     <t xml:space="preserve">KENNETH JOSEPH OWEN THOMAS</t>
@@ -1337,10 +1373,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C107" activeCellId="0" sqref="C107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="66:66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2066,7 +2102,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>194</v>
       </c>
@@ -2121,22 +2157,22 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="0" t="s">
         <v>210</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C72" s="0" t="s">
@@ -2150,7 +2186,7 @@
       <c r="B73" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="0" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2170,18 +2206,18 @@
         <v>221</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C75" s="0" t="s">
         <v>222</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>225</v>
@@ -2238,7 +2274,7 @@
       <c r="B81" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="0" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2249,7 +2285,7 @@
       <c r="B82" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="4" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2373,18 +2409,18 @@
       <c r="C93" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B94" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="C94" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="D94" s="0" t="s">
         <v>280</v>
       </c>
     </row>
@@ -2616,18 +2652,18 @@
         <v>342</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,13 +2765,24 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://sigsegv1980.github.io/j6/2022-10-19-USAvAlbuquerqueHead-GovernmentSentencingMemorandum.pdf"/>
     <hyperlink ref="B27" r:id="rId2" display="https://sigsegv1980.github.io/j6/2021-02-08-USAvDanielCaldwell-StatementOfFacts.pdf "/>
     <hyperlink ref="B28" r:id="rId3" display="https://sigsegv1980.github.io/j6/2023-06-09-USAvDanielRodriguez-DefendantSentencingMemorandum.pdf"/>
-    <hyperlink ref="B71" r:id="rId4" display="https://sigsegv1980.github.io/j6/2022-07-07-USAvLucasDenney-GovernmentsSentencingMemorandum.pdf"/>
+    <hyperlink ref="B66" r:id="rId4" display="https://sigsegv1980.github.io/j6/2024"/>
+    <hyperlink ref="B72" r:id="rId5" display="https://sigsegv1980.github.io/j6/2022-07-07-USAvLucasDenney-GovernmentsSentencingMemorandum.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/j6/defendants-charged-with-111a1.xlsx
+++ b/j6/defendants-charged-with-111a1.xlsx
@@ -607,34 +607,7 @@
     <t xml:space="preserve">KENNETH BONAWITZ</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://sigsegv1980.github.io/j6/2023-08-17-USAvKennethBonawitz-StatementOfOffense.pdf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://sigsegv1980.github.io/j6/2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-01-03-USAvKennethBonawitz-GovernmentSentencingMemorandum.pdf</t>
-    </r>
+    <t xml:space="preserve">https://sigsegv1980.github.io/j6/2023-08-17-USAvKennethBonawitz-StatementOfOffense.pdf https://sigsegv1980.github.io/j6/2024-01-03-USAvKennethBonawitz-GovernmentSentencingMemorandum.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Charged and tackled two officers|Shoved, pushed and punched officers|Struck officer in face|Placed officer in choke-hold and lifted her off ground</t>
@@ -1375,8 +1348,8 @@
   </sheetPr>
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="66:66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1384,7 +1357,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="80.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="221.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="219.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1398,7 +1372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
@@ -2106,7 +2080,7 @@
       <c r="A66" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C66" s="0" t="s">
@@ -2781,7 +2755,7 @@
     <hyperlink ref="B3" r:id="rId1" display="https://sigsegv1980.github.io/j6/2022-10-19-USAvAlbuquerqueHead-GovernmentSentencingMemorandum.pdf"/>
     <hyperlink ref="B27" r:id="rId2" display="https://sigsegv1980.github.io/j6/2021-02-08-USAvDanielCaldwell-StatementOfFacts.pdf "/>
     <hyperlink ref="B28" r:id="rId3" display="https://sigsegv1980.github.io/j6/2023-06-09-USAvDanielRodriguez-DefendantSentencingMemorandum.pdf"/>
-    <hyperlink ref="B66" r:id="rId4" display="https://sigsegv1980.github.io/j6/2024"/>
+    <hyperlink ref="B66" r:id="rId4" display="https://sigsegv1980.github.io/j6/2023-08-17-USAvKennethBonawitz-StatementOfOffense.pdf https://sigsegv1980.github.io/j6/2024-01-03-USAvKennethBonawitz-GovernmentSentencingMemorandum.pdf"/>
     <hyperlink ref="B72" r:id="rId5" display="https://sigsegv1980.github.io/j6/2022-07-07-USAvLucasDenney-GovernmentsSentencingMemorandum.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
